--- a/templates/4COM05_Imaging.xlsx
+++ b/templates/4COM05_Imaging.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM05_Imaging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E09C9B-2421-406B-ABEB-F75C7CD0EC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E76B87F-B7D9-481B-8D10-F99984C0FAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COm05_Imaging" sheetId="1" r:id="rId1"/>
@@ -44,11 +44,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BB9A3614-4B66-498A-9D4E-80CBD1DEBF6F}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=0708cd5a-f3b4-400c-a188-9c6ac477906c</t>
       </text>
     </comment>
@@ -413,7 +413,7 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_8735</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -975,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
@@ -1220,7 +1220,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" style="12" customWidth="1"/>
@@ -1435,7 +1435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -1772,7 +1772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>

--- a/templates/4COM05_Imaging.xlsx
+++ b/templates/4COM05_Imaging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E76B87F-B7D9-481B-8D10-F99984C0FAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBA6916-CE89-4466-90EC-9B01A68089A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COm05_Imaging" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={BB9A3614-4B66-498A-9D4E-80CBD1DEBF6F}</author>
+    <author>tc={14D124C2-C21B-4F90-9CEE-5688E5E3032B}</author>
+    <author>tc={4EFA4FC2-2986-4050-B46C-067EEA9512F7}</author>
+    <author>tc={68392C6C-BC61-4B1C-90A8-BF8E815CD421}</author>
+    <author>tc={BFEC8312-FE81-400E-9914-1305D9062478}</author>
+    <author>tc={6F594AD2-62F5-4957-B101-97AA7B311240}</author>
+    <author>tc={E009AF25-7068-4509-B33B-7D9FBE5888D1}</author>
+    <author>tc={041EBAA7-1430-400A-A631-1A9111AF26B5}</author>
+    <author>tc={69198A12-B0F2-4850-82A0-2DC573651D21}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BB9A3614-4B66-498A-9D4E-80CBD1DEBF6F}">
@@ -52,6 +60,70 @@
     id=0708cd5a-f3b4-400c-a188-9c6ac477906c</t>
       </text>
     </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{14D124C2-C21B-4F90-9CEE-5688E5E3032B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{4EFA4FC2-2986-4050-B46C-067EEA9512F7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{68392C6C-BC61-4B1C-90A8-BF8E815CD421}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{BFEC8312-FE81-400E-9914-1305D9062478}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{6F594AD2-62F5-4957-B101-97AA7B311240}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{E009AF25-7068-4509-B33B-7D9FBE5888D1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{041EBAA7-1430-400A-A631-1A9111AF26B5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{69198A12-B0F2-4850-82A0-2DC573651D21}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -149,9 +221,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -209,18 +278,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>0708cd5a-f3b4-400c-a188-9c6ac477906c</t>
   </si>
   <si>
@@ -414,13 +471,28 @@
   </si>
   <si>
     <t>1.0.2</t>
+  </si>
+  <si>
+    <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +507,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -566,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -583,13 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,6 +679,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,6 +703,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Oliver Maus" id="{D0C1F9EF-750E-4BFC-B3CF-5DB85966CF77}" userId="855bec4539777958" providerId="Windows Live"/>
+  <person displayName="Kevin F" id="{518643F1-9DD7-4CB7-90ED-6973BE69BC8A}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -935,6 +1011,30 @@
   <threadedComment ref="A1" dT="2021-12-13T17:16:04.56" personId="{D0C1F9EF-750E-4BFC-B3CF-5DB85966CF77}" id="{FBB9AD74-292E-4D60-A90F-DF56EC82DB74}" parentId="{BB9A3614-4B66-498A-9D4E-80CBD1DEBF6F}">
     <text>id=0708cd5a-f3b4-400c-a188-9c6ac477906c</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{518643F1-9DD7-4CB7-90ED-6973BE69BC8A}" id="{14D124C2-C21B-4F90-9CEE-5688E5E3032B}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{518643F1-9DD7-4CB7-90ED-6973BE69BC8A}" id="{4EFA4FC2-2986-4050-B46C-067EEA9512F7}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{518643F1-9DD7-4CB7-90ED-6973BE69BC8A}" id="{68392C6C-BC61-4B1C-90A8-BF8E815CD421}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{518643F1-9DD7-4CB7-90ED-6973BE69BC8A}" id="{BFEC8312-FE81-400E-9914-1305D9062478}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{518643F1-9DD7-4CB7-90ED-6973BE69BC8A}" id="{6F594AD2-62F5-4957-B101-97AA7B311240}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{518643F1-9DD7-4CB7-90ED-6973BE69BC8A}" id="{E009AF25-7068-4509-B33B-7D9FBE5888D1}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{518643F1-9DD7-4CB7-90ED-6973BE69BC8A}" id="{041EBAA7-1430-400A-A631-1A9111AF26B5}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{518643F1-9DD7-4CB7-90ED-6973BE69BC8A}" id="{69198A12-B0F2-4850-82A0-2DC573651D21}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -973,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1087,123 +1187,123 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="O2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" t="s">
+        <v>110</v>
+      </c>
+      <c r="S2" t="s">
+        <v>110</v>
+      </c>
+      <c r="T2" t="s">
         <v>106</v>
       </c>
-      <c r="I2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>110</v>
+      </c>
+      <c r="V2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" t="s">
         <v>111</v>
       </c>
-      <c r="U2" t="s">
-        <v>115</v>
-      </c>
-      <c r="V2" t="s">
-        <v>115</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>112</v>
-      </c>
-      <c r="X2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="W3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="X3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Y3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1216,23 +1316,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65203DB1-CEB6-485D-A318-69575AAEF935}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="35.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>54</v>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,7 +1342,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,180 +1350,191 @@
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>57</v>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1452,314 +1565,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="D3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="14"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1789,314 +1902,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="D3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="K3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="J4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="C7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="14" t="s">
+      <c r="C8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="C9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
